--- a/driver.xlsx
+++ b/driver.xlsx
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="69.25" customWidth="1"/>
+    <col min="1" max="4" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:P130"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="16" width="69.25" customWidth="1"/>
+    <col min="1" max="16" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -8874,7 +8874,7 @@
   <dimension ref="A1:P1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="16" width="69.25" customWidth="1"/>
+    <col min="1" max="16" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -8938,7 +8938,7 @@
   <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="69.25" customWidth="1"/>
+    <col min="1" max="3" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
